--- a/simulations/raw_inclusion_exclusion/Meijboom_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Meijboom_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.5135135135135135</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="D3">
-        <v>0.8918918918918919</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.671201814058957</v>
+        <v>0.6848072562358276</v>
       </c>
       <c r="I3">
-        <v>0.1124900047976971</v>
+        <v>0.08997281304973613</v>
       </c>
       <c r="J3">
-        <v>0.4054054054054054</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="K3">
-        <v>114.054054054054</v>
+        <v>95.02702702702703</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>33</v>
       </c>
       <c r="Q3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="S3">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="T3">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="U3">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="V3">
-        <v>810</v>
+        <v>836</v>
       </c>
       <c r="W3">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="X3">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="Y3">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="Z3">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="AA3">
         <v>34</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.95858</v>
+        <v>0.989349</v>
       </c>
       <c r="AG3">
-        <v>0.947929</v>
+        <v>0.972781</v>
       </c>
       <c r="AH3">
-        <v>0.931361</v>
+        <v>0.949112</v>
       </c>
       <c r="AI3">
-        <v>0.869822</v>
+        <v>0.87929</v>
       </c>
       <c r="AJ3">
-        <v>0.790533</v>
+        <v>0.8118339999999999</v>
       </c>
     </row>
   </sheetData>
